--- a/data/subscribers_revenue_data.xlsx
+++ b/data/subscribers_revenue_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryarudnik/neuefische DR/capstone-repo_hiral-darya/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7381D02-82B0-B645-9F26-C78D28EF83A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E2D1E1-27CE-AF47-A0E2-71FF2273FB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29320" yWindow="380" windowWidth="26600" windowHeight="16900" xr2:uid="{37737A94-DEF2-604E-98B6-0FD07379733B}"/>
+    <workbookView xWindow="140" yWindow="1100" windowWidth="26600" windowHeight="16900" xr2:uid="{37737A94-DEF2-604E-98B6-0FD07379733B}"/>
   </bookViews>
   <sheets>
     <sheet name="sub_rev" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
-    <t>Revenue</t>
-  </si>
-  <si>
     <t>netflix</t>
   </si>
   <si>
@@ -69,16 +66,17 @@
   </si>
   <si>
     <t>profit</t>
+  </si>
+  <si>
+    <t>revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -117,11 +115,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -437,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B825708-41F7-DD42-AA73-A3BA514109DD}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,39 +448,38 @@
     <col min="4" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>2011</v>
@@ -494,13 +490,16 @@
       <c r="D2" s="1">
         <v>3100000000</v>
       </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="1">
         <v>225000000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>2012</v>
@@ -511,15 +510,16 @@
       <c r="D3" s="1">
         <v>3500000000</v>
       </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1">
         <v>17000000</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>2013</v>
@@ -530,16 +530,16 @@
       <c r="D4" s="1">
         <v>4300000000</v>
       </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1">
         <v>112000000</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>2014</v>
@@ -550,16 +550,16 @@
       <c r="D5" s="1">
         <v>5400000000</v>
       </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1">
         <v>266000000</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>2015</v>
@@ -570,16 +570,16 @@
       <c r="D6" s="1">
         <v>6700000000</v>
       </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1">
         <v>122000000</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>2016</v>
@@ -590,6 +590,8 @@
       <c r="D7" s="1">
         <v>8800000000</v>
       </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <v>6880000000</v>
       </c>
@@ -597,9 +599,9 @@
         <v>188000000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>2017</v>
@@ -610,6 +612,8 @@
       <c r="D8" s="1">
         <v>11600000000</v>
       </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <v>8910000000</v>
       </c>
@@ -617,9 +621,9 @@
         <v>560000000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>2018</v>
@@ -630,6 +634,8 @@
       <c r="D9" s="1">
         <v>15700000000</v>
       </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <v>12000000000</v>
       </c>
@@ -637,9 +643,9 @@
         <v>1211000000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>2019</v>
@@ -650,6 +656,8 @@
       <c r="D10" s="1">
         <v>20100000000</v>
       </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="1">
         <v>13900000000</v>
       </c>
@@ -657,9 +665,9 @@
         <v>1867000000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>2020</v>
@@ -670,6 +678,8 @@
       <c r="D11" s="1">
         <v>24900000000</v>
       </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="1">
         <v>11800000000</v>
       </c>
@@ -677,9 +687,9 @@
         <v>2761000000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>2021</v>
@@ -690,6 +700,8 @@
       <c r="D12" s="1">
         <v>29490000000</v>
       </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="1">
         <v>17000000000</v>
       </c>
@@ -697,9 +709,9 @@
         <v>5116000000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>2020</v>
@@ -710,10 +722,14 @@
       <c r="D13" s="1">
         <v>2800000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>2021</v>
@@ -724,10 +740,14 @@
       <c r="D14" s="1">
         <v>5200000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>2019</v>
@@ -741,14 +761,15 @@
       <c r="E15" s="1">
         <v>90000000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>14400000000</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>2020</v>
@@ -762,14 +783,15 @@
       <c r="E16" s="1">
         <v>125000000</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>21000000000</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>2021</v>
@@ -783,10 +805,11 @@
       <c r="E17" s="1">
         <v>175000000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>27737500000</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/subscribers_revenue_data.xlsx
+++ b/data/subscribers_revenue_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryarudnik/neuefische DR/capstone-repo_hiral-darya/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E2D1E1-27CE-AF47-A0E2-71FF2273FB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B2EA81-6877-7847-9AF9-8080EBA12806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="1100" windowWidth="26600" windowHeight="16900" xr2:uid="{37737A94-DEF2-604E-98B6-0FD07379733B}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="26600" windowHeight="15880" xr2:uid="{37737A94-DEF2-604E-98B6-0FD07379733B}"/>
   </bookViews>
   <sheets>
     <sheet name="sub_rev" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>netflix</t>
   </si>
@@ -78,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,6 +89,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,7 +125,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -434,11 +441,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B825708-41F7-DD42-AA73-A3BA514109DD}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -490,9 +495,6 @@
       <c r="D2" s="1">
         <v>3100000000</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
       <c r="H2" s="1">
         <v>225000000</v>
       </c>
@@ -510,9 +512,6 @@
       <c r="D3" s="1">
         <v>3500000000</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
       <c r="H3" s="1">
         <v>17000000</v>
       </c>
@@ -530,9 +529,6 @@
       <c r="D4" s="1">
         <v>4300000000</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
       <c r="H4" s="1">
         <v>112000000</v>
       </c>
@@ -550,9 +546,6 @@
       <c r="D5" s="1">
         <v>5400000000</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
       <c r="H5" s="1">
         <v>266000000</v>
       </c>
@@ -570,9 +563,6 @@
       <c r="D6" s="1">
         <v>6700000000</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
       <c r="H6" s="1">
         <v>122000000</v>
       </c>
@@ -590,8 +580,6 @@
       <c r="D7" s="1">
         <v>8800000000</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <v>6880000000</v>
       </c>
@@ -612,8 +600,6 @@
       <c r="D8" s="1">
         <v>11600000000</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
       <c r="G8" s="1">
         <v>8910000000</v>
       </c>
@@ -634,8 +620,6 @@
       <c r="D9" s="1">
         <v>15700000000</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
       <c r="G9" s="1">
         <v>12000000000</v>
       </c>
@@ -656,8 +640,6 @@
       <c r="D10" s="1">
         <v>20100000000</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
       <c r="G10" s="1">
         <v>13900000000</v>
       </c>
@@ -678,8 +660,6 @@
       <c r="D11" s="1">
         <v>24900000000</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
       <c r="G11" s="1">
         <v>11800000000</v>
       </c>
@@ -700,8 +680,6 @@
       <c r="D12" s="1">
         <v>29490000000</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
       <c r="G12" s="1">
         <v>17000000000</v>
       </c>
@@ -722,10 +700,6 @@
       <c r="D13" s="1">
         <v>2800000000</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -740,76 +714,108 @@
       <c r="D14" s="1">
         <v>5200000000</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15">
+        <v>2016</v>
+      </c>
+      <c r="C15" s="1">
+        <v>46000000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6300000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2017</v>
+      </c>
+      <c r="C16" s="1">
+        <v>66000000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9700000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>2018</v>
+      </c>
+      <c r="C17" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>14100000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
         <v>2019</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C18" s="1">
         <v>120000000</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D18" s="1">
         <v>19200000000</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E18" s="1">
         <v>90000000</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F18">
         <v>14400000000</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B16">
+      <c r="B19">
         <v>2020</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C19" s="1">
         <v>150000000</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D19" s="1">
         <v>25200000000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E19" s="1">
         <v>125000000</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F19">
         <v>21000000000</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <v>2021</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C20" s="1">
         <v>200000000</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D20" s="1">
         <v>31700000000</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E20" s="1">
         <v>175000000</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F20">
         <v>27737500000</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/subscribers_revenue_data.xlsx
+++ b/data/subscribers_revenue_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryarudnik/neuefische DR/capstone-repo_hiral-darya/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B2EA81-6877-7847-9AF9-8080EBA12806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD54FF80-F711-D948-BD38-6542393A4318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="26600" windowHeight="15880" xr2:uid="{37737A94-DEF2-604E-98B6-0FD07379733B}"/>
+    <workbookView xWindow="29340" yWindow="-1400" windowWidth="26600" windowHeight="15880" xr2:uid="{37737A94-DEF2-604E-98B6-0FD07379733B}"/>
   </bookViews>
   <sheets>
     <sheet name="sub_rev" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>netflix</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>amazon_prime_video</t>
-  </si>
-  <si>
-    <t>prime_video_users</t>
-  </si>
-  <si>
-    <t>prime_video_users_revenue</t>
   </si>
   <si>
     <t>content_spend</t>
@@ -78,7 +72,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,13 +83,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,10 +109,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -441,9 +427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B825708-41F7-DD42-AA73-A3BA514109DD}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -451,12 +439,10 @@
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -467,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -475,14 +461,8 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -495,11 +475,11 @@
       <c r="D2" s="1">
         <v>3100000000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="F2" s="1">
         <v>225000000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -512,11 +492,11 @@
       <c r="D3" s="1">
         <v>3500000000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="F3" s="1">
         <v>17000000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -529,11 +509,11 @@
       <c r="D4" s="1">
         <v>4300000000</v>
       </c>
-      <c r="H4" s="1">
+      <c r="F4" s="1">
         <v>112000000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -546,11 +526,11 @@
       <c r="D5" s="1">
         <v>5400000000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="F5" s="1">
         <v>266000000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -563,11 +543,11 @@
       <c r="D6" s="1">
         <v>6700000000</v>
       </c>
-      <c r="H6" s="1">
+      <c r="F6" s="1">
         <v>122000000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -580,14 +560,14 @@
       <c r="D7" s="1">
         <v>8800000000</v>
       </c>
-      <c r="G7" s="1">
+      <c r="E7" s="1">
         <v>6880000000</v>
       </c>
-      <c r="H7" s="1">
+      <c r="F7" s="1">
         <v>188000000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -600,14 +580,14 @@
       <c r="D8" s="1">
         <v>11600000000</v>
       </c>
-      <c r="G8" s="1">
+      <c r="E8" s="1">
         <v>8910000000</v>
       </c>
-      <c r="H8" s="1">
+      <c r="F8" s="1">
         <v>560000000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -620,14 +600,14 @@
       <c r="D9" s="1">
         <v>15700000000</v>
       </c>
-      <c r="G9" s="1">
+      <c r="E9" s="1">
         <v>12000000000</v>
       </c>
-      <c r="H9" s="1">
+      <c r="F9" s="1">
         <v>1211000000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -640,14 +620,14 @@
       <c r="D10" s="1">
         <v>20100000000</v>
       </c>
-      <c r="G10" s="1">
+      <c r="E10" s="1">
         <v>13900000000</v>
       </c>
-      <c r="H10" s="1">
+      <c r="F10" s="1">
         <v>1867000000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -660,14 +640,14 @@
       <c r="D11" s="1">
         <v>24900000000</v>
       </c>
-      <c r="G11" s="1">
+      <c r="E11" s="1">
         <v>11800000000</v>
       </c>
-      <c r="H11" s="1">
+      <c r="F11" s="1">
         <v>2761000000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -680,14 +660,14 @@
       <c r="D12" s="1">
         <v>29490000000</v>
       </c>
-      <c r="G12" s="1">
+      <c r="E12" s="1">
         <v>17000000000</v>
       </c>
-      <c r="H12" s="1">
+      <c r="F12" s="1">
         <v>5116000000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -701,7 +681,7 @@
         <v>2800000000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -715,105 +695,45 @@
         <v>5200000000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C15" s="1">
-        <v>46000000</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6300000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+        <v>90000000</v>
+      </c>
+      <c r="D15">
+        <v>14400000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C16" s="1">
-        <v>66000000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>9700000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+        <v>125000000</v>
+      </c>
+      <c r="D16">
+        <v>21000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C17" s="1">
-        <v>100000000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>14100000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>2019</v>
-      </c>
-      <c r="C18" s="1">
-        <v>120000000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>19200000000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>90000000</v>
-      </c>
-      <c r="F18">
-        <v>14400000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>2020</v>
-      </c>
-      <c r="C19" s="1">
-        <v>150000000</v>
-      </c>
-      <c r="D19" s="1">
-        <v>25200000000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>125000000</v>
-      </c>
-      <c r="F19">
-        <v>21000000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>2021</v>
-      </c>
-      <c r="C20" s="1">
-        <v>200000000</v>
-      </c>
-      <c r="D20" s="1">
-        <v>31700000000</v>
-      </c>
-      <c r="E20" s="1">
         <v>175000000</v>
       </c>
-      <c r="F20">
+      <c r="D17">
         <v>27737500000</v>
       </c>
     </row>
